--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA87F01-B342-4534-A0E9-00DA6668FD5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AAB2D-86AF-4CFE-80ED-4229F7E33599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>+GSX2</t>
   </si>
@@ -187,15 +187,9 @@
     <t>+NEUROD1</t>
   </si>
   <si>
-    <t>+BCL11B</t>
-  </si>
-  <si>
     <t>GBX2</t>
   </si>
   <si>
-    <t>BCL11B</t>
-  </si>
-  <si>
     <t>TAC1</t>
   </si>
   <si>
@@ -208,30 +202,12 @@
     <t>NEUROD1</t>
   </si>
   <si>
-    <t>+POU3F3</t>
-  </si>
-  <si>
-    <t>POU3F3</t>
-  </si>
-  <si>
-    <t>EBF1</t>
-  </si>
-  <si>
-    <t>+EBF1</t>
-  </si>
-  <si>
     <t>CGE</t>
   </si>
   <si>
-    <t>+PAX6</t>
-  </si>
-  <si>
     <t>+PROX1</t>
   </si>
   <si>
-    <t>PAX6</t>
-  </si>
-  <si>
     <t>PROX1</t>
   </si>
   <si>
@@ -239,12 +215,6 @@
   </si>
   <si>
     <t>NEUROD2</t>
-  </si>
-  <si>
-    <t>+NR2F1</t>
-  </si>
-  <si>
-    <t>NR2F1</t>
   </si>
   <si>
     <t>+ETV1</t>
@@ -631,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,13 +668,13 @@
         <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -752,13 +722,13 @@
         <v>49</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -792,9 +762,6 @@
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -840,9 +807,7 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -878,9 +843,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -901,7 +864,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -924,10 +887,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -951,10 +914,10 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -981,9 +944,6 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1009,9 +969,6 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3869,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
   <dimension ref="A1:CP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,28 +3898,28 @@
         <v>39</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>67</v>
@@ -3974,25 +3931,10 @@
         <v>72</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AN1"/>
       <c r="AO1"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A399635-9603-4826-93AD-52EA7128AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A60E6-B72B-459F-B402-A34EC18639A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>+GSX2</t>
   </si>
@@ -265,9 +265,6 @@
     <t xml:space="preserve">+LIM1 </t>
   </si>
   <si>
-    <t xml:space="preserve">+ZFPM2 </t>
-  </si>
-  <si>
     <t>CER</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
   </si>
   <si>
     <t xml:space="preserve">LIM1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZFPM2 </t>
   </si>
   <si>
     <t xml:space="preserve">LMX1B </t>
@@ -840,7 +834,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>21</v>
@@ -922,10 +916,10 @@
         <v>74</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -936,13 +930,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -975,10 +969,10 @@
         <v>75</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T2" s="3"/>
     </row>
@@ -987,16 +981,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>57</v>
@@ -1005,10 +999,10 @@
         <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>66</v>
@@ -1023,14 +1017,12 @@
         <v>62</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="O3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1038,10 +1030,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -1054,10 +1046,10 @@
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
@@ -1070,21 +1062,21 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -1097,7 +1089,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1109,13 +1101,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -1128,7 +1120,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1144,7 +1136,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1239,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:CP21"/>
+  <dimension ref="A1:CO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG15" sqref="BG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,23 +1243,23 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="30" max="30" width="14.88671875" customWidth="1"/>
     <col min="54" max="54" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.88671875" customWidth="1"/>
-    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.88671875" customWidth="1"/>
+    <col min="64" max="64" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -1291,25 +1283,25 @@
         <v>12</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>7</v>
@@ -1324,13 +1316,13 @@
         <v>55</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>18</v>
@@ -1345,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>32</v>
@@ -1357,141 +1349,138 @@
         <v>42</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AJ1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="AO1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="AQ1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS1" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="BL1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-    </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I7" s="5"/>
+      <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-    </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I8" s="5"/>
-      <c r="CM8" s="1"/>
-      <c r="CO8" s="1"/>
-    </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="CL8" s="1"/>
+      <c r="CN8" s="1"/>
+    </row>
+    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I9" s="5"/>
-      <c r="CM9" s="1"/>
-      <c r="CO9" s="1"/>
-    </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="CL9" s="1"/>
+      <c r="CN9" s="1"/>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
       <c r="BB10" s="5"/>
-      <c r="CM10" s="1"/>
-      <c r="CO10" s="1"/>
-    </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="CL10" s="1"/>
+      <c r="CN10" s="1"/>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I11" s="1"/>
       <c r="AZ11" s="5"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
-      <c r="CM11" s="1"/>
-      <c r="CO11" s="1"/>
-    </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="CL11" s="1"/>
+      <c r="CN11" s="1"/>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
@@ -1501,7 +1490,7 @@
       <c r="BC12" s="5"/>
       <c r="BE12" s="5"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1518,7 +1507,7 @@
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="AF14" s="5"/>
@@ -1531,7 +1520,7 @@
       <c r="BD14" s="5"/>
       <c r="BE14" s="5"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="R15" s="5"/>
@@ -1545,7 +1534,7 @@
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="R16" s="5"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A60E6-B72B-459F-B402-A34EC18639A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13538E83-48F3-4B2A-88D6-E43DDF954218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>+GSX2</t>
   </si>
@@ -334,9 +334,6 @@
     <t>+COUP-TFII</t>
   </si>
   <si>
-    <t>+NR2F2</t>
-  </si>
-  <si>
     <t xml:space="preserve">+KCNJ13 </t>
   </si>
   <si>
@@ -356,9 +353,6 @@
   </si>
   <si>
     <t>COUP-TFII</t>
-  </si>
-  <si>
-    <t>NR2F2</t>
   </si>
   <si>
     <t>TIS21</t>
@@ -833,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>85</v>
@@ -1046,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>86</v>
@@ -1075,9 +1069,7 @@
       <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1081,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1120,7 +1112,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1231,326 +1223,324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:CO21"/>
+  <dimension ref="A1:CN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG15" sqref="BG15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="54" max="54" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.88671875" customWidth="1"/>
-    <col min="64" max="64" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" customWidth="1"/>
+    <col min="53" max="53" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.88671875" customWidth="1"/>
+    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="BK1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-    </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I7" s="5"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
+      <c r="CK7" s="1"/>
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
-    </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I8" s="5"/>
-      <c r="CL8" s="1"/>
-      <c r="CN8" s="1"/>
-    </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I9" s="5"/>
-      <c r="CL9" s="1"/>
-      <c r="CN9" s="1"/>
-    </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
-      <c r="BB10" s="5"/>
-      <c r="CL10" s="1"/>
-      <c r="CN10" s="1"/>
-    </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I11" s="1"/>
-      <c r="AZ11" s="5"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H8" s="5"/>
+      <c r="CK8" s="1"/>
+      <c r="CM8" s="1"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H9" s="5"/>
+      <c r="CK9" s="1"/>
+      <c r="CM9" s="1"/>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+      <c r="BA10" s="5"/>
+      <c r="CK10" s="1"/>
+      <c r="CM10" s="1"/>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+      <c r="AY11" s="5"/>
+      <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="CL11" s="1"/>
-      <c r="CN11" s="1"/>
-    </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.3">
-      <c r="I12" s="1"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="7"/>
+      <c r="CK11" s="1"/>
+      <c r="CM11" s="1"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="7"/>
+      <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BE12" s="5"/>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.3">
+      <c r="BD12" s="5"/>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="AR13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-    </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
+      <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-    </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="AF15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-    </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
+      <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-    </row>
-    <row r="17" spans="15:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="14:50" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1560,10 +1550,10 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
+      <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
@@ -1573,9 +1563,9 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-    </row>
-    <row r="18" spans="15:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="14:50" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1585,15 +1575,15 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
+      <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
+      <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-    </row>
-    <row r="19" spans="15:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="14:50" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1603,26 +1593,25 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="15:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="14:50" x14ac:dyDescent="0.3">
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="15:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="14:50" x14ac:dyDescent="0.3">
+      <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13538E83-48F3-4B2A-88D6-E43DDF954218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78687B6A-74A8-484D-8ED5-EDC3D1B75F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>+GSX2</t>
   </si>
@@ -229,12 +229,6 @@
     <t xml:space="preserve">+TRKA </t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+NPAS1 </t>
-  </si>
-  <si>
     <t>+TAL2</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t xml:space="preserve">+CLDN1 </t>
   </si>
   <si>
-    <t>+TJP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROX1 </t>
   </si>
   <si>
@@ -397,9 +388,6 @@
     <t xml:space="preserve">CLDN1 </t>
   </si>
   <si>
-    <t>TJP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYRP1 </t>
   </si>
   <si>
@@ -437,9 +425,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPAS1 </t>
   </si>
   <si>
     <t xml:space="preserve">LIM1 </t>
@@ -825,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,24 +831,23 @@
     <col min="11" max="11" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -871,7 +855,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>21</v>
@@ -904,19 +888,16 @@
         <v>60</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -924,13 +905,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -951,40 +932,37 @@
         <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>75</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>57</v>
@@ -993,41 +971,40 @@
         <v>37</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="P3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -1040,34 +1017,33 @@
         <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
         <v>63</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="P4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1081,25 +1057,24 @@
         <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
@@ -1111,24 +1086,21 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1142,16 +1114,15 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1170,9 +1141,8 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1191,9 +1161,8 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1212,7 +1181,6 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1223,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:CN21"/>
+  <dimension ref="A1:CL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1234,21 +1202,21 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="29" max="29" width="14.88671875" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.88671875" customWidth="1"/>
-    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.88671875" customWidth="1"/>
+    <col min="61" max="61" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
@@ -1272,25 +1240,25 @@
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>7</v>
@@ -1305,13 +1273,13 @@
         <v>55</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>18</v>
@@ -1326,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>32</v>
@@ -1338,148 +1306,142 @@
         <v>42</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AI1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AP1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AR1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="BG1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-    </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
       <c r="CK7" s="1"/>
       <c r="CL7" s="1"/>
-      <c r="CM7" s="1"/>
-      <c r="CN7" s="1"/>
-    </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
+      <c r="CI8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CM8" s="1"/>
-    </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H9" s="5"/>
+      <c r="CI9" s="1"/>
       <c r="CK9" s="1"/>
-      <c r="CM9" s="1"/>
-    </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
-      <c r="BA10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="CI10" s="1"/>
       <c r="CK10" s="1"/>
-      <c r="CM10" s="1"/>
-    </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
-      <c r="AY11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
+      <c r="CI11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CM11" s="1"/>
-    </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
       <c r="N12" s="5"/>
       <c r="O12" s="7"/>
+      <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
-      <c r="BD12" s="5"/>
-    </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1488,28 +1450,26 @@
       <c r="M13" s="1"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="AQ13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
       <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-    </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="AE14" s="5"/>
+      <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
+      <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-    </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1520,10 +1480,10 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="AE15" s="5"/>
+      <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-    </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1535,11 +1495,11 @@
       <c r="W16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
+      <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-    </row>
-    <row r="17" spans="14:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="14:49" x14ac:dyDescent="0.3">
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1553,6 +1513,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
+      <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
@@ -1562,9 +1523,8 @@
       <c r="AU17" s="5"/>
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-    </row>
-    <row r="18" spans="14:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="14:49" x14ac:dyDescent="0.3">
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1578,11 +1538,11 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
+      <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-    </row>
-    <row r="19" spans="14:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="14:49" x14ac:dyDescent="0.3">
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1597,7 +1557,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="14:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:49" x14ac:dyDescent="0.3">
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -1605,7 +1565,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="14:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:49" x14ac:dyDescent="0.3">
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78687B6A-74A8-484D-8ED5-EDC3D1B75F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F749D-97BA-4EB2-8180-6974E6843D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>+GSX2</t>
   </si>
@@ -49,18 +49,6 @@
     <t>+LHX2</t>
   </si>
   <si>
-    <t>+NEUROG1</t>
-  </si>
-  <si>
-    <t>+NEUROG2</t>
-  </si>
-  <si>
-    <t>NEUROG1</t>
-  </si>
-  <si>
-    <t>NEUROG2</t>
-  </si>
-  <si>
     <t>EMX1</t>
   </si>
   <si>
@@ -73,12 +61,6 @@
     <t>GSX2</t>
   </si>
   <si>
-    <t>ASCL1</t>
-  </si>
-  <si>
-    <t>+ASCL1</t>
-  </si>
-  <si>
     <t>+EMX1</t>
   </si>
   <si>
@@ -88,12 +70,6 @@
     <t>POA</t>
   </si>
   <si>
-    <t>+SOX6</t>
-  </si>
-  <si>
-    <t>SOX6</t>
-  </si>
-  <si>
     <t>LGE</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t>+DRD1</t>
   </si>
   <si>
-    <t>+NEUROD1</t>
-  </si>
-  <si>
     <t>GBX2</t>
   </si>
   <si>
@@ -169,15 +142,6 @@
     <t>DCT</t>
   </si>
   <si>
-    <t>NEUROD1</t>
-  </si>
-  <si>
-    <t>+NEUROD2</t>
-  </si>
-  <si>
-    <t>NEUROD2</t>
-  </si>
-  <si>
     <t>+NKX2.1</t>
   </si>
   <si>
@@ -211,15 +175,9 @@
     <t>+ZBTB20</t>
   </si>
   <si>
-    <t>+MATH2</t>
-  </si>
-  <si>
     <t>+DRD2</t>
   </si>
   <si>
-    <t>BNF</t>
-  </si>
-  <si>
     <t xml:space="preserve">+CHAT </t>
   </si>
   <si>
@@ -235,21 +193,12 @@
     <t xml:space="preserve">+SIX6 </t>
   </si>
   <si>
-    <t xml:space="preserve">+MFAP4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">+PLAGL1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">+PMCH </t>
   </si>
   <si>
     <t xml:space="preserve">+TBX3 </t>
   </si>
   <si>
-    <t xml:space="preserve">+BRN3A </t>
-  </si>
-  <si>
     <t xml:space="preserve">+PAX7 </t>
   </si>
   <si>
@@ -283,18 +232,12 @@
     <t xml:space="preserve">+PHOX2B </t>
   </si>
   <si>
-    <t xml:space="preserve">+TLX3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">+TYRP1 </t>
   </si>
   <si>
     <t xml:space="preserve">+TYR </t>
   </si>
   <si>
-    <t>+TIS21</t>
-  </si>
-  <si>
     <t xml:space="preserve">+GSH1 </t>
   </si>
   <si>
@@ -307,9 +250,6 @@
     <t xml:space="preserve">+LHX8 </t>
   </si>
   <si>
-    <t>+HMX3</t>
-  </si>
-  <si>
     <t>+NKX5.1</t>
   </si>
   <si>
@@ -319,9 +259,6 @@
     <t>CGE/POH</t>
   </si>
   <si>
-    <t xml:space="preserve">+PROX1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">+5HTR3A </t>
   </si>
   <si>
@@ -337,36 +274,24 @@
     <t xml:space="preserve">+CLDN1 </t>
   </si>
   <si>
-    <t xml:space="preserve">PROX1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">5HTR3A </t>
   </si>
   <si>
     <t>COUP-TFII</t>
   </si>
   <si>
-    <t>TIS21</t>
-  </si>
-  <si>
     <t xml:space="preserve">GSH1 </t>
   </si>
   <si>
     <t xml:space="preserve">GSH2 </t>
   </si>
   <si>
-    <t>HMX3</t>
-  </si>
-  <si>
     <t>NKX5.1</t>
   </si>
   <si>
     <t>NKX5-1</t>
   </si>
   <si>
-    <t>MATH2</t>
-  </si>
-  <si>
     <t xml:space="preserve">LHX6 </t>
   </si>
   <si>
@@ -400,21 +325,12 @@
     <t xml:space="preserve">SIX6 </t>
   </si>
   <si>
-    <t xml:space="preserve">MFAP4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAGL1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">PMCH </t>
   </si>
   <si>
     <t xml:space="preserve">TBX3 </t>
   </si>
   <si>
-    <t xml:space="preserve">BRN3A </t>
-  </si>
-  <si>
     <t xml:space="preserve">PAX7 </t>
   </si>
   <si>
@@ -448,14 +364,14 @@
     <t xml:space="preserve">PHOX2B </t>
   </si>
   <si>
-    <t xml:space="preserve">TLX3 </t>
+    <t>BFN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +416,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -521,15 +445,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -810,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,52 +782,52 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -902,49 +835,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -952,146 +885,124 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>90</v>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="7" t="s">
-        <v>59</v>
+      <c r="G5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1099,88 +1010,203 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="K7" s="9"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="K8" s="10"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="K9"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="K10" s="8"/>
       <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="10"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="10"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="11:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1191,387 +1217,311 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:CL21"/>
+  <dimension ref="A1:BX21"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="29" max="29" width="14.88671875" customWidth="1"/>
-    <col min="52" max="52" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.88671875" customWidth="1"/>
-    <col min="61" max="61" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-    </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H7" s="5"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-    </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H8" s="5"/>
-      <c r="CI8" s="1"/>
-      <c r="CK8" s="1"/>
-    </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H9" s="5"/>
-      <c r="CI9" s="1"/>
-      <c r="CK9" s="1"/>
-    </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H10" s="1"/>
-      <c r="AZ10" s="5"/>
-      <c r="CI10" s="1"/>
-      <c r="CK10" s="1"/>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H11" s="1"/>
-      <c r="AX11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="CI11" s="1"/>
-      <c r="CK11" s="1"/>
-    </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="H12" s="1"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-    </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+      <c r="BU8" s="1"/>
+      <c r="BW8" s="1"/>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+      <c r="BU9" s="1"/>
+      <c r="BW9" s="1"/>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="AM10" s="5"/>
+      <c r="BU10" s="1"/>
+      <c r="BW10" s="1"/>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="AK11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="BU11" s="1"/>
+      <c r="BW11" s="1"/>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="J12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-    </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="J14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-    </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="J15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-    </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="J16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-    </row>
-    <row r="17" spans="14:49" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="10:36" x14ac:dyDescent="0.3">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-    </row>
-    <row r="18" spans="14:49" x14ac:dyDescent="0.3">
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="10:36" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-    </row>
-    <row r="19" spans="14:49" x14ac:dyDescent="0.3">
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="10:36" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="14:49" x14ac:dyDescent="0.3">
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="14:49" x14ac:dyDescent="0.3">
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
+    </row>
+    <row r="20" spans="10:36" x14ac:dyDescent="0.3">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="10:36" x14ac:dyDescent="0.3">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F749D-97BA-4EB2-8180-6974E6843D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD858B3E-03EF-474F-AD11-CD502FD7132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>+GSX2</t>
   </si>
@@ -172,9 +172,6 @@
     <t>TET</t>
   </si>
   <si>
-    <t>+ZBTB20</t>
-  </si>
-  <si>
     <t>+DRD2</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
   </si>
   <si>
     <t xml:space="preserve">LHX8 </t>
-  </si>
-  <si>
-    <t>ZBTB20</t>
   </si>
   <si>
     <t>DRD2</t>
@@ -746,7 +740,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>13</v>
@@ -818,16 +812,16 @@
         <v>44</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -838,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -865,19 +859,19 @@
         <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -886,52 +880,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -944,28 +936,28 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -976,21 +968,21 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="5"/>
     </row>
@@ -1217,28 +1209,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:BX21"/>
+  <dimension ref="A1:BW21"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
-    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.88671875" customWidth="1"/>
-    <col min="65" max="65" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.88671875" customWidth="1"/>
+    <col min="64" max="64" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -1256,28 +1247,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>37</v>
@@ -1289,239 +1280,236 @@
         <v>2</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AG1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-    </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F7" s="5"/>
+      <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
       <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-    </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F8" s="5"/>
-      <c r="BU8" s="1"/>
-      <c r="BW8" s="1"/>
-    </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="BT8" s="1"/>
+      <c r="BV8" s="1"/>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F9" s="5"/>
-      <c r="BU9" s="1"/>
-      <c r="BW9" s="1"/>
-    </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="BT9" s="1"/>
+      <c r="BV9" s="1"/>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F10" s="1"/>
-      <c r="AM10" s="5"/>
-      <c r="BU10" s="1"/>
-      <c r="BW10" s="1"/>
-    </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="AL10" s="5"/>
+      <c r="BT10" s="1"/>
+      <c r="BV10" s="1"/>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F11" s="1"/>
-      <c r="AK11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="BU11" s="1"/>
-      <c r="BW11" s="1"/>
-    </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="BT11" s="1"/>
+      <c r="BV11" s="1"/>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F12" s="1"/>
       <c r="J12" s="5"/>
+      <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-    </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-    </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="J14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
+      <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-    </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="J15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="J16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="10:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="10:35" x14ac:dyDescent="0.3">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-    </row>
-    <row r="18" spans="10:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="10:35" x14ac:dyDescent="0.3">
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="10:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="10:35" x14ac:dyDescent="0.3">
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="10:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="10:35" x14ac:dyDescent="0.3">
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="10:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="10:35" x14ac:dyDescent="0.3">
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/requirements_file/markers_developing_brain.xlsx
+++ b/requirements_file/markers_developing_brain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD858B3E-03EF-474F-AD11-CD502FD7132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F744C5-FF1F-4447-A5F8-8B708F0E1040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>+GSX2</t>
   </si>
@@ -178,9 +178,6 @@
     <t xml:space="preserve">+CHAT </t>
   </si>
   <si>
-    <t>+p75NTR/NGFR</t>
-  </si>
-  <si>
     <t xml:space="preserve">+TRKA </t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t xml:space="preserve">CHAT </t>
   </si>
   <si>
-    <t>p75NTR/NGFR</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRKA </t>
   </si>
   <si>
@@ -359,6 +353,18 @@
   </si>
   <si>
     <t>BFN</t>
+  </si>
+  <si>
+    <t>+NGFR</t>
+  </si>
+  <si>
+    <t>+p75NTR</t>
+  </si>
+  <si>
+    <t>p75NTR</t>
+  </si>
+  <si>
+    <t>NGFR</t>
   </si>
 </sst>
 </file>
@@ -739,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>13</v>
@@ -812,16 +818,16 @@
         <v>44</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -832,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -859,19 +865,19 @@
         <v>40</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" s="3"/>
     </row>
@@ -880,50 +886,50 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -936,28 +942,28 @@
         <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -971,18 +977,20 @@
         <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="5"/>
     </row>
@@ -1209,27 +1217,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:BW21"/>
+  <dimension ref="A1:BX21"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="38" max="38" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.88671875" customWidth="1"/>
-    <col min="64" max="64" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -1247,28 +1255,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>37</v>
@@ -1289,120 +1297,123 @@
         <v>33</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AB1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>31</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="AG1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
-      <c r="BT6" s="1"/>
+    </row>
+    <row r="2" spans="1:76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
-    </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="BX6" s="1"/>
+    </row>
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F7" s="5"/>
-      <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
       <c r="BW7" s="1"/>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="BX7" s="1"/>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F8" s="5"/>
-      <c r="BT8" s="1"/>
-      <c r="BV8" s="1"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="BU8" s="1"/>
+      <c r="BW8" s="1"/>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F9" s="5"/>
-      <c r="BT9" s="1"/>
-      <c r="BV9" s="1"/>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="BU9" s="1"/>
+      <c r="BW9" s="1"/>
+    </row>
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F10" s="1"/>
-      <c r="AL10" s="5"/>
-      <c r="BT10" s="1"/>
-      <c r="BV10" s="1"/>
-    </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AM10" s="5"/>
+      <c r="BU10" s="1"/>
+      <c r="BW10" s="1"/>
+    </row>
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F11" s="1"/>
       <c r="AJ11" s="5"/>
-      <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
-      <c r="BT11" s="1"/>
-      <c r="BV11" s="1"/>
-    </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AN11" s="5"/>
+      <c r="BU11" s="1"/>
+      <c r="BW11" s="1"/>
+    </row>
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F12" s="1"/>
       <c r="J12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -1410,8 +1421,9 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AO12" s="5"/>
+    </row>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1423,8 +1435,9 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-    </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AO13" s="5"/>
+    </row>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="J14" s="5"/>
       <c r="T14" s="5"/>
       <c r="AD14" s="5"/>
@@ -1434,8 +1447,9 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="AO14" s="5"/>
+    </row>
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="J15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1444,7 +1458,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="J16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
